--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="H2">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="I2">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="J2">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.36679595387781</v>
+        <v>3.991803</v>
       </c>
       <c r="N2">
-        <v>3.36679595387781</v>
+        <v>7.983606</v>
       </c>
       <c r="O2">
-        <v>0.005611094384401611</v>
+        <v>0.006502325592161369</v>
       </c>
       <c r="P2">
-        <v>0.005611094384401611</v>
+        <v>0.004360045287596243</v>
       </c>
       <c r="Q2">
-        <v>196.7585449991638</v>
+        <v>234.2145682097385</v>
       </c>
       <c r="R2">
-        <v>196.7585449991638</v>
+        <v>936.858272838954</v>
       </c>
       <c r="S2">
-        <v>0.0008795469244037503</v>
+        <v>0.0009997279599147503</v>
       </c>
       <c r="T2">
-        <v>0.0008795469244037503</v>
+        <v>0.0004863713589964628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="H3">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="I3">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="J3">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.0527903374834</v>
+        <v>18.61045266666667</v>
       </c>
       <c r="N3">
-        <v>18.0527903374834</v>
+        <v>55.83135800000001</v>
       </c>
       <c r="O3">
-        <v>0.03008673880838015</v>
+        <v>0.03031492853133646</v>
       </c>
       <c r="P3">
-        <v>0.03008673880838015</v>
+        <v>0.03049088962406196</v>
       </c>
       <c r="Q3">
-        <v>1055.02109680482</v>
+        <v>1091.947457204454</v>
       </c>
       <c r="R3">
-        <v>1055.02109680482</v>
+        <v>6551.684743226723</v>
       </c>
       <c r="S3">
-        <v>0.004716138558961668</v>
+        <v>0.004660898816283442</v>
       </c>
       <c r="T3">
-        <v>0.004716138558961668</v>
+        <v>0.003401316831652018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="H4">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="I4">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="J4">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>259.635909044715</v>
+        <v>269.1818846666667</v>
       </c>
       <c r="N4">
-        <v>259.635909044715</v>
+        <v>807.545654</v>
       </c>
       <c r="O4">
-        <v>0.4327086081803817</v>
+        <v>0.4384756105484907</v>
       </c>
       <c r="P4">
-        <v>0.4327086081803817</v>
+        <v>0.4410207146045942</v>
       </c>
       <c r="Q4">
-        <v>15173.35306118982</v>
+        <v>15793.9454645149</v>
       </c>
       <c r="R4">
-        <v>15173.35306118982</v>
+        <v>94763.67278708938</v>
       </c>
       <c r="S4">
-        <v>0.06782768198412145</v>
+        <v>0.06741531493508429</v>
       </c>
       <c r="T4">
-        <v>0.06782768198412145</v>
+        <v>0.04919670098795799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="H5">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="I5">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="J5">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>310.092348426905</v>
+        <v>313.0021056666667</v>
       </c>
       <c r="N5">
-        <v>310.092348426905</v>
+        <v>939.0063170000001</v>
       </c>
       <c r="O5">
-        <v>0.5167991938745398</v>
+        <v>0.5098552213315045</v>
       </c>
       <c r="P5">
-        <v>0.5167991938745398</v>
+        <v>0.512814643841261</v>
       </c>
       <c r="Q5">
-        <v>18122.07218010276</v>
+        <v>18365.04783113227</v>
       </c>
       <c r="R5">
-        <v>18122.07218010276</v>
+        <v>110190.2869867936</v>
       </c>
       <c r="S5">
-        <v>0.08100899937992467</v>
+        <v>0.07838987959755472</v>
       </c>
       <c r="T5">
-        <v>0.08100899937992467</v>
+        <v>0.05720545058280098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="H6">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="I6">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="J6">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24478108475239</v>
+        <v>2.481043333333333</v>
       </c>
       <c r="N6">
-        <v>2.24478108475239</v>
+        <v>7.44313</v>
       </c>
       <c r="O6">
-        <v>0.003741146987050889</v>
+        <v>0.004041419769862061</v>
       </c>
       <c r="P6">
-        <v>0.003741146987050889</v>
+        <v>0.004064877936294229</v>
       </c>
       <c r="Q6">
-        <v>131.1869997850053</v>
+        <v>145.5724375742783</v>
       </c>
       <c r="R6">
-        <v>131.1869997850053</v>
+        <v>873.43462544567</v>
       </c>
       <c r="S6">
-        <v>0.0005864300439055759</v>
+        <v>0.0006213654306320792</v>
       </c>
       <c r="T6">
-        <v>0.0005864300439055759</v>
+        <v>0.0004534448785783444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="H7">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="I7">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="J7">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.63220511007825</v>
+        <v>6.6366045</v>
       </c>
       <c r="N7">
-        <v>6.63220511007825</v>
+        <v>13.273209</v>
       </c>
       <c r="O7">
-        <v>0.01105321776524576</v>
+        <v>0.01081049422664478</v>
       </c>
       <c r="P7">
-        <v>0.01105321776524576</v>
+        <v>0.007248828706192419</v>
       </c>
       <c r="Q7">
-        <v>387.5919555184233</v>
+        <v>389.3953327221577</v>
       </c>
       <c r="R7">
-        <v>387.5919555184233</v>
+        <v>1557.581330888631</v>
       </c>
       <c r="S7">
-        <v>0.00173260740671422</v>
+        <v>0.001662105839778679</v>
       </c>
       <c r="T7">
-        <v>0.00173260740671422</v>
+        <v>0.0008086206533205773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="H8">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="I8">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="J8">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.36679595387781</v>
+        <v>3.991803</v>
       </c>
       <c r="N8">
-        <v>3.36679595387781</v>
+        <v>7.983606</v>
       </c>
       <c r="O8">
-        <v>0.005611094384401611</v>
+        <v>0.006502325592161369</v>
       </c>
       <c r="P8">
-        <v>0.005611094384401611</v>
+        <v>0.004360045287596243</v>
       </c>
       <c r="Q8">
-        <v>203.6509208280344</v>
+        <v>260.443765653132</v>
       </c>
       <c r="R8">
-        <v>203.6509208280344</v>
+        <v>1562.662593918792</v>
       </c>
       <c r="S8">
-        <v>0.0009103571134206676</v>
+        <v>0.001111685393863962</v>
       </c>
       <c r="T8">
-        <v>0.0009103571134206676</v>
+        <v>0.0008112585985435074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="H9">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="I9">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="J9">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.0527903374834</v>
+        <v>18.61045266666667</v>
       </c>
       <c r="N9">
-        <v>18.0527903374834</v>
+        <v>55.83135800000001</v>
       </c>
       <c r="O9">
-        <v>0.03008673880838015</v>
+        <v>0.03031492853133646</v>
       </c>
       <c r="P9">
-        <v>0.03008673880838015</v>
+        <v>0.03049088962406196</v>
       </c>
       <c r="Q9">
-        <v>1091.978078300069</v>
+        <v>1214.232358915518</v>
       </c>
       <c r="R9">
-        <v>1091.978078300069</v>
+        <v>10928.09123023966</v>
       </c>
       <c r="S9">
-        <v>0.004881343070966623</v>
+        <v>0.005182863082855032</v>
       </c>
       <c r="T9">
-        <v>0.004881343070966623</v>
+        <v>0.005673334736942284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="H10">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="I10">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="J10">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>259.635909044715</v>
+        <v>269.1818846666667</v>
       </c>
       <c r="N10">
-        <v>259.635909044715</v>
+        <v>807.545654</v>
       </c>
       <c r="O10">
-        <v>0.4327086081803817</v>
+        <v>0.4384756105484907</v>
       </c>
       <c r="P10">
-        <v>0.4327086081803817</v>
+        <v>0.4410207146045942</v>
       </c>
       <c r="Q10">
-        <v>15704.86975787158</v>
+        <v>17562.67623632573</v>
       </c>
       <c r="R10">
-        <v>15704.86975787158</v>
+        <v>158064.0861269315</v>
       </c>
       <c r="S10">
-        <v>0.07020365948404485</v>
+        <v>0.07496501442498717</v>
       </c>
       <c r="T10">
-        <v>0.07020365948404485</v>
+        <v>0.08205920426483222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="H11">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="I11">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="J11">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>310.092348426905</v>
+        <v>313.0021056666667</v>
       </c>
       <c r="N11">
-        <v>310.092348426905</v>
+        <v>939.0063170000001</v>
       </c>
       <c r="O11">
-        <v>0.5167991938745398</v>
+        <v>0.5098552213315045</v>
       </c>
       <c r="P11">
-        <v>0.5167991938745398</v>
+        <v>0.512814643841261</v>
       </c>
       <c r="Q11">
-        <v>18756.8813685104</v>
+        <v>20421.71095547205</v>
       </c>
       <c r="R11">
-        <v>18756.8813685104</v>
+        <v>183795.3985992485</v>
       </c>
       <c r="S11">
-        <v>0.08384671333664029</v>
+        <v>0.08716859752805885</v>
       </c>
       <c r="T11">
-        <v>0.08384671333664029</v>
+        <v>0.0954176532199761</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="H12">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="I12">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="J12">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.24478108475239</v>
+        <v>2.481043333333333</v>
       </c>
       <c r="N12">
-        <v>2.24478108475239</v>
+        <v>7.44313</v>
       </c>
       <c r="O12">
-        <v>0.003741146987050889</v>
+        <v>0.004041419769862061</v>
       </c>
       <c r="P12">
-        <v>0.003741146987050889</v>
+        <v>0.004064877936294229</v>
       </c>
       <c r="Q12">
-        <v>135.7824297135203</v>
+        <v>161.8747890319067</v>
       </c>
       <c r="R12">
-        <v>135.7824297135203</v>
+        <v>1456.87310128716</v>
       </c>
       <c r="S12">
-        <v>0.0006069724618216845</v>
+        <v>0.000690950839811039</v>
       </c>
       <c r="T12">
-        <v>0.0006069724618216845</v>
+        <v>0.0007563378268638427</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="H13">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="I13">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="J13">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.63220511007825</v>
+        <v>6.6366045</v>
       </c>
       <c r="N13">
-        <v>6.63220511007825</v>
+        <v>13.273209</v>
       </c>
       <c r="O13">
-        <v>0.01105321776524576</v>
+        <v>0.01081049422664478</v>
       </c>
       <c r="P13">
-        <v>0.01105321776524576</v>
+        <v>0.007248828706192419</v>
       </c>
       <c r="Q13">
-        <v>401.1691520040511</v>
+        <v>433.0028979712981</v>
       </c>
       <c r="R13">
-        <v>401.1691520040511</v>
+        <v>2598.017387827788</v>
       </c>
       <c r="S13">
-        <v>0.001793299974912516</v>
+        <v>0.001848241580935193</v>
       </c>
       <c r="T13">
-        <v>0.001793299974912516</v>
+        <v>0.001348764572239044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="H14">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="I14">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="J14">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.36679595387781</v>
+        <v>3.991803</v>
       </c>
       <c r="N14">
-        <v>3.36679595387781</v>
+        <v>7.983606</v>
       </c>
       <c r="O14">
-        <v>0.005611094384401611</v>
+        <v>0.006502325592161369</v>
       </c>
       <c r="P14">
-        <v>0.005611094384401611</v>
+        <v>0.004360045287596243</v>
       </c>
       <c r="Q14">
-        <v>245.8979319266025</v>
+        <v>301.370762448811</v>
       </c>
       <c r="R14">
-        <v>245.8979319266025</v>
+        <v>1808.224574692866</v>
       </c>
       <c r="S14">
-        <v>0.001099209031781593</v>
+        <v>0.001286379322276399</v>
       </c>
       <c r="T14">
-        <v>0.001099209031781593</v>
+        <v>0.0009387424643208023</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="H15">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="I15">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="J15">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.0527903374834</v>
+        <v>18.61045266666667</v>
       </c>
       <c r="N15">
-        <v>18.0527903374834</v>
+        <v>55.83135800000001</v>
       </c>
       <c r="O15">
-        <v>0.03008673880838015</v>
+        <v>0.03031492853133646</v>
       </c>
       <c r="P15">
-        <v>0.03008673880838015</v>
+        <v>0.03049088962406196</v>
       </c>
       <c r="Q15">
-        <v>1318.506933685364</v>
+        <v>1405.040857394727</v>
       </c>
       <c r="R15">
-        <v>1318.506933685364</v>
+        <v>12645.36771655254</v>
       </c>
       <c r="S15">
-        <v>0.005893968764268457</v>
+        <v>0.00599731537067427</v>
       </c>
       <c r="T15">
-        <v>0.005893968764268457</v>
+        <v>0.006564861366567557</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="H16">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="I16">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="J16">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>259.635909044715</v>
+        <v>269.1818846666667</v>
       </c>
       <c r="N16">
-        <v>259.635909044715</v>
+        <v>807.545654</v>
       </c>
       <c r="O16">
-        <v>0.4327086081803817</v>
+        <v>0.4384756105484907</v>
       </c>
       <c r="P16">
-        <v>0.4327086081803817</v>
+        <v>0.4410207146045942</v>
       </c>
       <c r="Q16">
-        <v>18962.81626881626</v>
+        <v>20322.53340643345</v>
       </c>
       <c r="R16">
-        <v>18962.81626881626</v>
+        <v>182902.800657901</v>
       </c>
       <c r="S16">
-        <v>0.08476728025886558</v>
+        <v>0.08674526532661817</v>
       </c>
       <c r="T16">
-        <v>0.08476728025886558</v>
+        <v>0.09495425967758353</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="H17">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="I17">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="J17">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>310.092348426905</v>
+        <v>313.0021056666667</v>
       </c>
       <c r="N17">
-        <v>310.092348426905</v>
+        <v>939.0063170000001</v>
       </c>
       <c r="O17">
-        <v>0.5167991938745398</v>
+        <v>0.5098552213315045</v>
       </c>
       <c r="P17">
-        <v>0.5167991938745398</v>
+        <v>0.512814643841261</v>
       </c>
       <c r="Q17">
-        <v>22647.96210670709</v>
+        <v>23630.84632003299</v>
       </c>
       <c r="R17">
-        <v>22647.96210670709</v>
+        <v>212677.6168802969</v>
       </c>
       <c r="S17">
-        <v>0.1012405606834079</v>
+        <v>0.1008665599375952</v>
       </c>
       <c r="T17">
-        <v>0.1012405606834079</v>
+        <v>0.1104118995894062</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="H18">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="I18">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="J18">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.24478108475239</v>
+        <v>2.481043333333333</v>
       </c>
       <c r="N18">
-        <v>2.24478108475239</v>
+        <v>7.44313</v>
       </c>
       <c r="O18">
-        <v>0.003741146987050889</v>
+        <v>0.004041419769862061</v>
       </c>
       <c r="P18">
-        <v>0.003741146987050889</v>
+        <v>0.004064877936294229</v>
       </c>
       <c r="Q18">
-        <v>163.9502464450809</v>
+        <v>187.3123300511589</v>
       </c>
       <c r="R18">
-        <v>163.9502464450809</v>
+        <v>1685.81097046043</v>
       </c>
       <c r="S18">
-        <v>0.0007328877890239562</v>
+        <v>0.0007995291455193831</v>
       </c>
       <c r="T18">
-        <v>0.0007328877890239562</v>
+        <v>0.0008751912604980873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="H19">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="I19">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="J19">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.63220511007825</v>
+        <v>6.6366045</v>
       </c>
       <c r="N19">
-        <v>6.63220511007825</v>
+        <v>13.273209</v>
       </c>
       <c r="O19">
-        <v>0.01105321776524576</v>
+        <v>0.01081049422664478</v>
       </c>
       <c r="P19">
-        <v>0.01105321776524576</v>
+        <v>0.007248828706192419</v>
       </c>
       <c r="Q19">
-        <v>484.3909589480499</v>
+        <v>501.0464089125165</v>
       </c>
       <c r="R19">
-        <v>484.3909589480499</v>
+        <v>3006.278453475099</v>
       </c>
       <c r="S19">
-        <v>0.002165316775205626</v>
+        <v>0.002138680390521901</v>
       </c>
       <c r="T19">
-        <v>0.002165316775205626</v>
+        <v>0.001560713908740618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="H20">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="I20">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="J20">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.36679595387781</v>
+        <v>3.991803</v>
       </c>
       <c r="N20">
-        <v>3.36679595387781</v>
+        <v>7.983606</v>
       </c>
       <c r="O20">
-        <v>0.005611094384401611</v>
+        <v>0.006502325592161369</v>
       </c>
       <c r="P20">
-        <v>0.005611094384401611</v>
+        <v>0.004360045287596243</v>
       </c>
       <c r="Q20">
-        <v>342.5349215030761</v>
+        <v>407.814882580235</v>
       </c>
       <c r="R20">
-        <v>342.5349215030761</v>
+        <v>2446.88929548141</v>
       </c>
       <c r="S20">
-        <v>0.001531194168518531</v>
+        <v>0.001740728357339899</v>
       </c>
       <c r="T20">
-        <v>0.001531194168518531</v>
+        <v>0.001270306199411412</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="H21">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="I21">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="J21">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.0527903374834</v>
+        <v>18.61045266666667</v>
       </c>
       <c r="N21">
-        <v>18.0527903374834</v>
+        <v>55.83135800000001</v>
       </c>
       <c r="O21">
-        <v>0.03008673880838015</v>
+        <v>0.03031492853133646</v>
       </c>
       <c r="P21">
-        <v>0.03008673880838015</v>
+        <v>0.03049088962406196</v>
       </c>
       <c r="Q21">
-        <v>1836.675345305405</v>
+        <v>1901.301133603459</v>
       </c>
       <c r="R21">
-        <v>1836.675345305405</v>
+        <v>17111.71020243113</v>
       </c>
       <c r="S21">
-        <v>0.008210276972206875</v>
+        <v>0.008115566499598957</v>
       </c>
       <c r="T21">
-        <v>0.008210276972206875</v>
+        <v>0.008883569678783988</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="H22">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="I22">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="J22">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>259.635909044715</v>
+        <v>269.1818846666667</v>
       </c>
       <c r="N22">
-        <v>259.635909044715</v>
+        <v>807.545654</v>
       </c>
       <c r="O22">
-        <v>0.4327086081803817</v>
+        <v>0.4384756105484907</v>
       </c>
       <c r="P22">
-        <v>0.4327086081803817</v>
+        <v>0.4410207146045942</v>
       </c>
       <c r="Q22">
-        <v>26415.13383713628</v>
+        <v>27500.44996911497</v>
       </c>
       <c r="R22">
-        <v>26415.13383713628</v>
+        <v>247504.0497220347</v>
       </c>
       <c r="S22">
-        <v>0.1180805119506519</v>
+        <v>0.1173836834937658</v>
       </c>
       <c r="T22">
-        <v>0.1180805119506519</v>
+        <v>0.128492093746102</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="H23">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="I23">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="J23">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>310.092348426905</v>
+        <v>313.0021056666667</v>
       </c>
       <c r="N23">
-        <v>310.092348426905</v>
+        <v>939.0063170000001</v>
       </c>
       <c r="O23">
-        <v>0.5167991938745398</v>
+        <v>0.5098552213315045</v>
       </c>
       <c r="P23">
-        <v>0.5167991938745398</v>
+        <v>0.512814643841261</v>
       </c>
       <c r="Q23">
-        <v>31548.52853638939</v>
+        <v>31977.25863972195</v>
       </c>
       <c r="R23">
-        <v>31548.52853638939</v>
+        <v>287795.3277574976</v>
       </c>
       <c r="S23">
-        <v>0.1410277314449706</v>
+        <v>0.1364926178073081</v>
       </c>
       <c r="T23">
-        <v>0.1410277314449706</v>
+        <v>0.1494093703736854</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="H24">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="I24">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="J24">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.24478108475239</v>
+        <v>2.481043333333333</v>
       </c>
       <c r="N24">
-        <v>2.24478108475239</v>
+        <v>7.44313</v>
       </c>
       <c r="O24">
-        <v>0.003741146987050889</v>
+        <v>0.004041419769862061</v>
       </c>
       <c r="P24">
-        <v>0.003741146987050889</v>
+        <v>0.004064877936294229</v>
       </c>
       <c r="Q24">
-        <v>228.3820947841011</v>
+        <v>253.4710244117278</v>
       </c>
       <c r="R24">
-        <v>228.3820947841011</v>
+        <v>2281.23921970555</v>
       </c>
       <c r="S24">
-        <v>0.001020910014643051</v>
+        <v>0.001081922751729592</v>
       </c>
       <c r="T24">
-        <v>0.001020910014643051</v>
+        <v>0.001184308717392248</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="H25">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="I25">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="J25">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.63220511007825</v>
+        <v>6.6366045</v>
       </c>
       <c r="N25">
-        <v>6.63220511007825</v>
+        <v>13.273209</v>
       </c>
       <c r="O25">
-        <v>0.01105321776524576</v>
+        <v>0.01081049422664478</v>
       </c>
       <c r="P25">
-        <v>0.01105321776524576</v>
+        <v>0.007248828706192419</v>
       </c>
       <c r="Q25">
-        <v>674.7548375054872</v>
+        <v>678.0159454008525</v>
       </c>
       <c r="R25">
-        <v>674.7548375054872</v>
+        <v>4068.095672405115</v>
       </c>
       <c r="S25">
-        <v>0.003016278363193963</v>
+        <v>0.002894062069094988</v>
       </c>
       <c r="T25">
-        <v>0.003016278363193963</v>
+        <v>0.002111957889553085</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="H26">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="I26">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="J26">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.36679595387781</v>
+        <v>3.991803</v>
       </c>
       <c r="N26">
-        <v>3.36679595387781</v>
+        <v>7.983606</v>
       </c>
       <c r="O26">
-        <v>0.005611094384401611</v>
+        <v>0.006502325592161369</v>
       </c>
       <c r="P26">
-        <v>0.005611094384401611</v>
+        <v>0.004360045287596243</v>
       </c>
       <c r="Q26">
-        <v>152.5586208993222</v>
+        <v>182.866368916208</v>
       </c>
       <c r="R26">
-        <v>152.5586208993222</v>
+        <v>1097.198213497248</v>
       </c>
       <c r="S26">
-        <v>0.000681965125346128</v>
+        <v>0.0007805518816827269</v>
       </c>
       <c r="T26">
-        <v>0.000681965125346128</v>
+        <v>0.0005696120765097641</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="H27">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="I27">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="J27">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.0527903374834</v>
+        <v>18.61045266666667</v>
       </c>
       <c r="N27">
-        <v>18.0527903374834</v>
+        <v>55.83135800000001</v>
       </c>
       <c r="O27">
-        <v>0.03008673880838015</v>
+        <v>0.03031492853133646</v>
       </c>
       <c r="P27">
-        <v>0.03008673880838015</v>
+        <v>0.03049088962406196</v>
       </c>
       <c r="Q27">
-        <v>818.0207042541286</v>
+        <v>852.5535711657851</v>
       </c>
       <c r="R27">
-        <v>818.0207042541286</v>
+        <v>7672.982140492066</v>
       </c>
       <c r="S27">
-        <v>0.003656703166453921</v>
+        <v>0.00363906331247659</v>
       </c>
       <c r="T27">
-        <v>0.003656703166453921</v>
+        <v>0.003983440035084401</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="H28">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="I28">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="J28">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>259.635909044715</v>
+        <v>269.1818846666667</v>
       </c>
       <c r="N28">
-        <v>259.635909044715</v>
+        <v>807.545654</v>
       </c>
       <c r="O28">
-        <v>0.4327086081803817</v>
+        <v>0.4384756105484907</v>
       </c>
       <c r="P28">
-        <v>0.4327086081803817</v>
+        <v>0.4410207146045942</v>
       </c>
       <c r="Q28">
-        <v>11764.80450921948</v>
+        <v>12331.34847261121</v>
       </c>
       <c r="R28">
-        <v>11764.80450921948</v>
+        <v>110982.1362535008</v>
       </c>
       <c r="S28">
-        <v>0.05259084235624605</v>
+        <v>0.05263546988452823</v>
       </c>
       <c r="T28">
-        <v>0.05259084235624605</v>
+        <v>0.05761654030163506</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="H29">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="I29">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="J29">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>310.092348426905</v>
+        <v>313.0021056666667</v>
       </c>
       <c r="N29">
-        <v>310.092348426905</v>
+        <v>939.0063170000001</v>
       </c>
       <c r="O29">
-        <v>0.5167991938745398</v>
+        <v>0.5098552213315045</v>
       </c>
       <c r="P29">
-        <v>0.5167991938745398</v>
+        <v>0.512814643841261</v>
       </c>
       <c r="Q29">
-        <v>14051.12209813403</v>
+        <v>14338.7733629116</v>
       </c>
       <c r="R29">
-        <v>14051.12209813403</v>
+        <v>129048.9602662043</v>
       </c>
       <c r="S29">
-        <v>0.06281110294797045</v>
+        <v>0.06120401797102021</v>
       </c>
       <c r="T29">
-        <v>0.06281110294797045</v>
+        <v>0.06699595872869425</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="H30">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="I30">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="J30">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.24478108475239</v>
+        <v>2.481043333333333</v>
       </c>
       <c r="N30">
-        <v>2.24478108475239</v>
+        <v>7.44313</v>
       </c>
       <c r="O30">
-        <v>0.003741146987050889</v>
+        <v>0.004041419769862061</v>
       </c>
       <c r="P30">
-        <v>0.003741146987050889</v>
+        <v>0.004064877936294229</v>
       </c>
       <c r="Q30">
-        <v>101.7170957795258</v>
+        <v>113.6577595363378</v>
       </c>
       <c r="R30">
-        <v>101.7170957795258</v>
+        <v>1022.91983582704</v>
       </c>
       <c r="S30">
-        <v>0.0004546941468414691</v>
+        <v>0.0004851399336013622</v>
       </c>
       <c r="T30">
-        <v>0.0004546941468414691</v>
+        <v>0.0005310503468021994</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="H31">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="I31">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="J31">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.63220511007825</v>
+        <v>6.6366045</v>
       </c>
       <c r="N31">
-        <v>6.63220511007825</v>
+        <v>13.273209</v>
       </c>
       <c r="O31">
-        <v>0.01105321776524576</v>
+        <v>0.01081049422664478</v>
       </c>
       <c r="P31">
-        <v>0.01105321776524576</v>
+        <v>0.007248828706192419</v>
       </c>
       <c r="Q31">
-        <v>300.5231320744589</v>
+        <v>304.025966924712</v>
       </c>
       <c r="R31">
-        <v>300.5231320744589</v>
+        <v>1824.155801548272</v>
       </c>
       <c r="S31">
-        <v>0.001343393734332584</v>
+        <v>0.001297712870715076</v>
       </c>
       <c r="T31">
-        <v>0.001343393734332584</v>
+        <v>0.0009470131843227345</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="H32">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="I32">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="J32">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.36679595387781</v>
+        <v>3.991803</v>
       </c>
       <c r="N32">
-        <v>3.36679595387781</v>
+        <v>7.983606</v>
       </c>
       <c r="O32">
-        <v>0.005611094384401611</v>
+        <v>0.006502325592161369</v>
       </c>
       <c r="P32">
-        <v>0.005611094384401611</v>
+        <v>0.004360045287596243</v>
       </c>
       <c r="Q32">
-        <v>113.8257410993445</v>
+        <v>136.6434464151285</v>
       </c>
       <c r="R32">
-        <v>113.8257410993445</v>
+        <v>546.573785660514</v>
       </c>
       <c r="S32">
-        <v>0.0005088220209309408</v>
+        <v>0.000583252677083632</v>
       </c>
       <c r="T32">
-        <v>0.0005088220209309408</v>
+        <v>0.0002837545898142943</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="H33">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="I33">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="J33">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>18.0527903374834</v>
+        <v>18.61045266666667</v>
       </c>
       <c r="N33">
-        <v>18.0527903374834</v>
+        <v>55.83135800000001</v>
       </c>
       <c r="O33">
-        <v>0.03008673880838015</v>
+        <v>0.03031492853133646</v>
       </c>
       <c r="P33">
-        <v>0.03008673880838015</v>
+        <v>0.03049088962406196</v>
       </c>
       <c r="Q33">
-        <v>610.3346526564438</v>
+        <v>637.0545820319671</v>
       </c>
       <c r="R33">
-        <v>610.3346526564438</v>
+        <v>3822.327492191802</v>
       </c>
       <c r="S33">
-        <v>0.00272830827552261</v>
+        <v>0.00271922144944817</v>
       </c>
       <c r="T33">
-        <v>0.00272830827552261</v>
+        <v>0.001984366975031711</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="H34">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="I34">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="J34">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>259.635909044715</v>
+        <v>269.1818846666667</v>
       </c>
       <c r="N34">
-        <v>259.635909044715</v>
+        <v>807.545654</v>
       </c>
       <c r="O34">
-        <v>0.4327086081803817</v>
+        <v>0.4384756105484907</v>
       </c>
       <c r="P34">
-        <v>0.4327086081803817</v>
+        <v>0.4410207146045942</v>
       </c>
       <c r="Q34">
-        <v>8777.855910447388</v>
+        <v>9214.367651252571</v>
       </c>
       <c r="R34">
-        <v>8777.855910447388</v>
+        <v>55286.20590751542</v>
       </c>
       <c r="S34">
-        <v>0.03923863214645184</v>
+        <v>0.03933086248350703</v>
       </c>
       <c r="T34">
-        <v>0.03923863214645184</v>
+        <v>0.02870191562648332</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="H35">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="I35">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="J35">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>310.092348426905</v>
+        <v>313.0021056666667</v>
       </c>
       <c r="N35">
-        <v>310.092348426905</v>
+        <v>939.0063170000001</v>
       </c>
       <c r="O35">
-        <v>0.5167991938745398</v>
+        <v>0.5098552213315045</v>
       </c>
       <c r="P35">
-        <v>0.5167991938745398</v>
+        <v>0.512814643841261</v>
       </c>
       <c r="Q35">
-        <v>10483.70375052721</v>
+        <v>10714.37805259567</v>
       </c>
       <c r="R35">
-        <v>10483.70375052721</v>
+        <v>64286.26831557402</v>
       </c>
       <c r="S35">
-        <v>0.04686408608162584</v>
+        <v>0.04573354848996736</v>
       </c>
       <c r="T35">
-        <v>0.04686408608162584</v>
+        <v>0.033374311346698</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="H36">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="I36">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="J36">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.24478108475239</v>
+        <v>2.481043333333333</v>
       </c>
       <c r="N36">
-        <v>2.24478108475239</v>
+        <v>7.44313</v>
       </c>
       <c r="O36">
-        <v>0.003741146987050889</v>
+        <v>0.004041419769862061</v>
       </c>
       <c r="P36">
-        <v>0.003741146987050889</v>
+        <v>0.004064877936294229</v>
       </c>
       <c r="Q36">
-        <v>75.89229465582414</v>
+        <v>84.92861791324501</v>
       </c>
       <c r="R36">
-        <v>75.89229465582414</v>
+        <v>509.57170747947</v>
       </c>
       <c r="S36">
-        <v>0.000339252530815152</v>
+        <v>0.0003625116685686055</v>
       </c>
       <c r="T36">
-        <v>0.000339252530815152</v>
+        <v>0.0002645449061595059</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="H37">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="I37">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="J37">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.63220511007825</v>
+        <v>6.6366045</v>
       </c>
       <c r="N37">
-        <v>6.63220511007825</v>
+        <v>13.273209</v>
       </c>
       <c r="O37">
-        <v>0.01105321776524576</v>
+        <v>0.01081049422664478</v>
       </c>
       <c r="P37">
-        <v>0.01105321776524576</v>
+        <v>0.007248828706192419</v>
       </c>
       <c r="Q37">
-        <v>224.2237641125888</v>
+        <v>227.1776716872427</v>
       </c>
       <c r="R37">
-        <v>224.2237641125888</v>
+        <v>908.7106867489709</v>
       </c>
       <c r="S37">
-        <v>0.001002321510886847</v>
+        <v>0.0009696914755989409</v>
       </c>
       <c r="T37">
-        <v>0.001002321510886847</v>
+        <v>0.0004717584980163599</v>
       </c>
     </row>
   </sheetData>
